--- a/Un tercio R500 CC.xlsx
+++ b/Un tercio R500 CC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO ESTANDAR\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO ESTANDAR\Downloads\Bases de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CAB73FA-5D65-4436-B9A2-26C64D3E0E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E1A511-5BE6-4DEC-BF6E-D8B03792A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1455" yWindow="2220" windowWidth="19305" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Un tercio R500 CC" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>MKW3S</t>
-  </si>
-  <si>
-    <t>R (1/3) R500</t>
   </si>
   <si>
     <t>R X-ray (1/3 R500)</t>
@@ -472,1478 +469,1358 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D39"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>0.40343333333333331</v>
+        <v>1034</v>
       </c>
       <c r="C2" s="2">
-        <v>1034</v>
+        <v>2.65</v>
       </c>
       <c r="D2" s="2">
-        <v>2.65</v>
-      </c>
-      <c r="E2" s="2">
         <v>19.75</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>16.260000000000002</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.251</v>
+      </c>
       <c r="I2" s="3">
-        <v>0.251</v>
+        <v>2.66E-3</v>
       </c>
       <c r="J2" s="3">
-        <v>2.66E-3</v>
+        <v>388</v>
       </c>
       <c r="K2" s="3">
-        <v>388</v>
-      </c>
-      <c r="L2" s="3">
         <v>7.51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
-        <v>0.31376666666666664</v>
+        <v>853</v>
       </c>
       <c r="C3" s="2">
-        <v>853</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0819999999999999</v>
-      </c>
-      <c r="E3" s="2">
         <v>9.51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>15.77</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="3">
+        <v>0.317</v>
+      </c>
       <c r="I3" s="3">
-        <v>0.317</v>
+        <v>9.3300000000000002E-4</v>
       </c>
       <c r="J3" s="3">
-        <v>9.3300000000000002E-4</v>
+        <v>620</v>
       </c>
       <c r="K3" s="3">
-        <v>620</v>
-      </c>
-      <c r="L3" s="3">
         <v>6.17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>0.31263333333333332</v>
+        <v>778</v>
       </c>
       <c r="C4" s="2">
-        <v>778</v>
+        <v>1.899</v>
       </c>
       <c r="D4" s="2">
-        <v>1.899</v>
-      </c>
-      <c r="E4" s="2">
         <v>7.3</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>15.55</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H4" s="3">
+        <v>0.13800000000000001</v>
+      </c>
       <c r="I4" s="3">
-        <v>0.13800000000000001</v>
+        <v>3.3800000000000002E-3</v>
       </c>
       <c r="J4" s="3">
-        <v>3.3800000000000002E-3</v>
+        <v>195</v>
       </c>
       <c r="K4" s="3">
-        <v>195</v>
-      </c>
-      <c r="L4" s="3">
         <v>4.55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>0.37229999999999996</v>
+        <v>950</v>
       </c>
       <c r="C5" s="2">
-        <v>950</v>
+        <v>2.2090000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>2.2090000000000001</v>
-      </c>
-      <c r="E5" s="2">
         <v>11.65</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>16.07</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H5" s="3">
+        <v>0.374</v>
+      </c>
       <c r="I5" s="3">
-        <v>0.374</v>
+        <v>1.0300000000000001E-3</v>
       </c>
       <c r="J5" s="3">
-        <v>1.0300000000000001E-3</v>
+        <v>657</v>
       </c>
       <c r="K5" s="3">
-        <v>657</v>
-      </c>
-      <c r="L5" s="3">
         <v>6.69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="2">
-        <v>0.21683333333333332</v>
+        <v>343</v>
       </c>
       <c r="C6" s="2">
-        <v>343</v>
+        <v>0.87</v>
       </c>
       <c r="D6" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="E6" s="2">
         <v>0.68</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>13.47</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H6" s="3">
+        <v>0.217</v>
+      </c>
       <c r="I6" s="3">
-        <v>0.217</v>
+        <v>8.4900000000000004E-4</v>
       </c>
       <c r="J6" s="3">
-        <v>8.4900000000000004E-4</v>
+        <v>238</v>
       </c>
       <c r="K6" s="3">
-        <v>238</v>
-      </c>
-      <c r="L6" s="3">
         <v>2.04</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2">
-        <v>0.41403333333333331</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="2">
-        <v>1026</v>
+        <v>2.41</v>
       </c>
       <c r="D7" s="2">
-        <v>2.41</v>
-      </c>
-      <c r="E7" s="2">
         <v>15.11</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>16.260000000000002</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H7" s="3">
+        <v>0.41499999999999998</v>
+      </c>
       <c r="I7" s="3">
-        <v>0.41499999999999998</v>
+        <v>1.1100000000000001E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>1.1100000000000001E-3</v>
+        <v>772</v>
       </c>
       <c r="K7" s="3">
-        <v>772</v>
-      </c>
-      <c r="L7" s="3">
         <v>8.25</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2">
-        <v>0.42853333333333332</v>
+        <v>1029</v>
       </c>
       <c r="C8" s="2">
-        <v>1029</v>
+        <v>2.359</v>
       </c>
       <c r="D8" s="2">
-        <v>2.359</v>
-      </c>
-      <c r="E8" s="2">
         <v>13.5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>16.22</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H8" s="3">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="I8" s="3">
-        <v>0.11600000000000001</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="J8" s="3">
-        <v>1.2699999999999999E-2</v>
+        <v>117</v>
       </c>
       <c r="K8" s="3">
-        <v>117</v>
-      </c>
-      <c r="L8" s="3">
         <v>6.58</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="2">
-        <v>0.33246666666666663</v>
+        <v>712</v>
       </c>
       <c r="C9" s="2">
-        <v>712</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="D9" s="2">
-        <v>1.8220000000000001</v>
-      </c>
-      <c r="E9" s="2">
         <v>6.31</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>15.31</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H9" s="3">
+        <v>8.0299999999999996E-2</v>
+      </c>
       <c r="I9" s="3">
-        <v>8.0299999999999996E-2</v>
+        <v>5.62E-3</v>
       </c>
       <c r="J9" s="3">
-        <v>5.62E-3</v>
+        <v>189</v>
       </c>
       <c r="K9" s="3">
-        <v>189</v>
-      </c>
-      <c r="L9" s="3">
         <v>5.96</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>0.2591</v>
+        <v>698</v>
       </c>
       <c r="C10" s="2">
-        <v>698</v>
+        <v>1.5569999999999999</v>
       </c>
       <c r="D10" s="2">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="E10" s="2">
         <v>3.92</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>15.26</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H10" s="3">
+        <v>0.25900000000000001</v>
+      </c>
       <c r="I10" s="3">
-        <v>0.25900000000000001</v>
+        <v>8.4599999999999996E-4</v>
       </c>
       <c r="J10" s="3">
-        <v>8.4599999999999996E-4</v>
+        <v>278</v>
       </c>
       <c r="K10" s="3">
-        <v>278</v>
-      </c>
-      <c r="L10" s="3">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="2">
-        <v>0.27636666666666665</v>
+        <v>866</v>
       </c>
       <c r="C11" s="2">
-        <v>866</v>
+        <v>2.202</v>
       </c>
       <c r="D11" s="2">
-        <v>2.202</v>
-      </c>
-      <c r="E11" s="2">
         <v>11.18</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>15.8</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H11" s="3">
+        <v>0.17899999999999999</v>
+      </c>
       <c r="I11" s="3">
-        <v>0.17899999999999999</v>
+        <v>3.98E-3</v>
       </c>
       <c r="J11" s="3">
-        <v>3.98E-3</v>
+        <v>162</v>
       </c>
       <c r="K11" s="3">
-        <v>162</v>
-      </c>
-      <c r="L11" s="3">
         <v>3.98</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="2">
-        <v>0.38129999999999997</v>
+        <v>820</v>
       </c>
       <c r="C12" s="2">
-        <v>820</v>
+        <v>2.0449999999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>2.0449999999999999</v>
-      </c>
-      <c r="E12" s="2">
         <v>9.1</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>15.68</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H12" s="3">
+        <v>0.38</v>
+      </c>
       <c r="I12" s="3">
-        <v>0.38</v>
+        <v>1.65E-3</v>
       </c>
       <c r="J12" s="3">
-        <v>1.65E-3</v>
+        <v>560</v>
       </c>
       <c r="K12" s="3">
-        <v>560</v>
-      </c>
-      <c r="L12" s="3">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="2">
-        <v>0.23383333333333334</v>
+        <v>678</v>
       </c>
       <c r="C13" s="2">
-        <v>678</v>
+        <v>1.5740000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>1.5740000000000001</v>
-      </c>
-      <c r="E13" s="2">
         <v>3.99</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>15.17</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="H13" s="3">
+        <v>5.6099999999999997E-2</v>
+      </c>
       <c r="I13" s="3">
-        <v>5.6099999999999997E-2</v>
+        <v>1.2800000000000001E-2</v>
       </c>
       <c r="J13" s="3">
-        <v>1.2800000000000001E-2</v>
+        <v>60.6</v>
       </c>
       <c r="K13" s="3">
-        <v>60.6</v>
-      </c>
-      <c r="L13" s="3">
         <v>3.05</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="2">
-        <v>0.33146666666666663</v>
+        <v>1008</v>
       </c>
       <c r="C14" s="2">
-        <v>1008</v>
+        <v>2.3650000000000002</v>
       </c>
       <c r="D14" s="2">
-        <v>2.3650000000000002</v>
-      </c>
-      <c r="E14" s="2">
         <v>14</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>16.190000000000001</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H14" s="3">
+        <v>0.29399999999999998</v>
+      </c>
       <c r="I14" s="3">
-        <v>0.29399999999999998</v>
+        <v>3.2299999999999998E-3</v>
       </c>
       <c r="J14" s="3">
-        <v>3.2299999999999998E-3</v>
+        <v>232</v>
       </c>
       <c r="K14" s="3">
-        <v>232</v>
-      </c>
-      <c r="L14" s="3">
         <v>5.29</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="2">
-        <v>0.36716666666666664</v>
+        <v>723</v>
       </c>
       <c r="C15" s="2">
-        <v>723</v>
+        <v>1.903</v>
       </c>
       <c r="D15" s="2">
-        <v>1.903</v>
-      </c>
-      <c r="E15" s="2">
         <v>7.55</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>15.4</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H15" s="3">
+        <v>0.27900000000000003</v>
+      </c>
       <c r="I15" s="3">
-        <v>0.27900000000000003</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J15" s="3">
-        <v>4.1000000000000003E-3</v>
+        <v>209</v>
       </c>
       <c r="K15" s="3">
-        <v>209</v>
-      </c>
-      <c r="L15" s="3">
         <v>5.03</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="2">
-        <v>0.37506666666666666</v>
+        <v>876</v>
       </c>
       <c r="C16" s="2">
-        <v>876</v>
+        <v>2.25</v>
       </c>
       <c r="D16" s="2">
-        <v>2.25</v>
-      </c>
-      <c r="E16" s="2">
         <v>12.5</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="2">
+      <c r="F16" s="2">
         <v>15.88</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H16" s="3">
+        <v>0.29799999999999999</v>
+      </c>
       <c r="I16" s="3">
-        <v>0.29799999999999999</v>
+        <v>1.4499999999999999E-3</v>
       </c>
       <c r="J16" s="3">
-        <v>1.4499999999999999E-3</v>
+        <v>520</v>
       </c>
       <c r="K16" s="3">
-        <v>520</v>
-      </c>
-      <c r="L16" s="3">
         <v>6.02</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="2">
-        <v>0.32313333333333333</v>
+        <v>386</v>
       </c>
       <c r="C17" s="2">
-        <v>386</v>
+        <v>1.075</v>
       </c>
       <c r="D17" s="2">
-        <v>1.075</v>
-      </c>
-      <c r="E17" s="2">
         <v>1.3</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>13.78</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H17" s="3">
+        <v>0.27200000000000002</v>
+      </c>
       <c r="I17" s="3">
-        <v>0.27200000000000002</v>
+        <v>1.99E-3</v>
       </c>
       <c r="J17" s="3">
-        <v>1.99E-3</v>
+        <v>181</v>
       </c>
       <c r="K17" s="3">
-        <v>181</v>
-      </c>
-      <c r="L17" s="3">
         <v>2.83</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="2">
-        <v>0.40786666666666666</v>
+        <v>780</v>
       </c>
       <c r="C18" s="2">
-        <v>780</v>
+        <v>1.8759999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>1.8759999999999999</v>
-      </c>
-      <c r="E18" s="2">
         <v>7.09</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>15.56</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H18" s="3">
+        <v>0.379</v>
+      </c>
       <c r="I18" s="3">
-        <v>0.379</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="J18" s="3">
-        <v>1.0200000000000001E-3</v>
+        <v>682</v>
       </c>
       <c r="K18" s="3">
-        <v>682</v>
-      </c>
-      <c r="L18" s="3">
         <v>6.67</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="2">
-        <v>0.44479999999999997</v>
+        <v>931</v>
       </c>
       <c r="C19" s="2">
-        <v>931</v>
+        <v>1.931</v>
       </c>
       <c r="D19" s="2">
-        <v>1.931</v>
-      </c>
-      <c r="E19" s="2">
         <v>7.82</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>16.02</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H19" s="3">
+        <v>0.379</v>
+      </c>
       <c r="I19" s="3">
-        <v>0.379</v>
+        <v>1.0200000000000001E-3</v>
       </c>
       <c r="J19" s="3">
-        <v>1.0200000000000001E-3</v>
+        <v>682</v>
       </c>
       <c r="K19" s="3">
-        <v>682</v>
-      </c>
-      <c r="L19" s="3">
         <v>6.67</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="2">
-        <v>0.3155</v>
+        <v>648</v>
       </c>
       <c r="C20" s="2">
-        <v>648</v>
+        <v>1.6</v>
       </c>
       <c r="D20" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E20" s="2">
         <v>4.28</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>15.08</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H20" s="2">
+        <v>0.123</v>
+      </c>
       <c r="I20" s="2">
-        <v>0.123</v>
+        <v>6.796E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>6.796E-3</v>
+        <v>98.938999999999993</v>
       </c>
       <c r="K20" s="2">
-        <v>98.938999999999993</v>
-      </c>
-      <c r="L20" s="2">
         <v>3.5531000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="2">
-        <v>0.30066666666666664</v>
+        <v>762</v>
       </c>
       <c r="C21" s="2">
-        <v>762</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>1.8089999999999999</v>
-      </c>
-      <c r="E21" s="2">
         <v>6.18</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>15.48</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H21" s="3">
+        <v>0.28899999999999998</v>
+      </c>
       <c r="I21" s="3">
-        <v>0.28899999999999998</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="J21" s="3">
-        <v>1.6800000000000001E-3</v>
+        <v>269</v>
       </c>
       <c r="K21" s="3">
-        <v>269</v>
-      </c>
-      <c r="L21" s="3">
         <v>4.17</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="2">
-        <v>0.34933333333333333</v>
+        <v>1043</v>
       </c>
       <c r="C22" s="2">
-        <v>1043</v>
+        <v>2.504</v>
       </c>
       <c r="D22" s="2">
-        <v>2.504</v>
-      </c>
-      <c r="E22" s="2">
         <v>17</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="2">
+      <c r="F22" s="2">
         <v>16.3</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H22" s="2">
+        <v>0.34910999999999998</v>
+      </c>
       <c r="I22" s="2">
-        <v>0.34910999999999998</v>
+        <v>3.6816000000000003E-4</v>
       </c>
       <c r="J22" s="2">
-        <v>3.6816000000000003E-4</v>
+        <v>1069.7</v>
       </c>
       <c r="K22" s="2">
-        <v>1069.7</v>
-      </c>
-      <c r="L22" s="2">
         <v>5.6467000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="2">
-        <v>0.46010000000000001</v>
+        <v>828</v>
       </c>
       <c r="C23" s="2">
-        <v>828</v>
+        <v>2.157</v>
       </c>
       <c r="D23" s="2">
-        <v>2.157</v>
-      </c>
-      <c r="E23" s="2">
         <v>11.1</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="2">
+      <c r="F23" s="2">
         <v>15.74</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H23" s="2">
+        <v>0.4</v>
+      </c>
       <c r="I23" s="2">
-        <v>0.4</v>
+        <v>1.4545999999999999E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>1.4545999999999999E-3</v>
+        <v>848.79</v>
       </c>
       <c r="K23" s="2">
-        <v>848.79</v>
-      </c>
-      <c r="L23" s="2">
         <v>10.901999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B24" s="2">
-        <v>0.31169999999999998</v>
+        <v>935</v>
       </c>
       <c r="C24" s="2">
-        <v>935</v>
+        <v>2.4660000000000002</v>
       </c>
       <c r="D24" s="2">
-        <v>2.4660000000000002</v>
-      </c>
-      <c r="E24" s="2">
         <v>15.7</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>15.99</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H24" s="2">
+        <v>0.19900000000000001</v>
+      </c>
       <c r="I24" s="2">
-        <v>0.19900000000000001</v>
+        <v>1.15E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>1.15E-3</v>
+        <v>376</v>
       </c>
       <c r="K24" s="2">
-        <v>376</v>
-      </c>
-      <c r="L24" s="2">
         <v>4.0223000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B25" s="2">
-        <v>0.25506666666666666</v>
+        <v>768</v>
       </c>
       <c r="C25" s="2">
-        <v>768</v>
+        <v>1.9990000000000001</v>
       </c>
       <c r="D25" s="2">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="E25" s="2">
         <v>8.35</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>15.5</v>
       </c>
+      <c r="H25" s="3">
+        <v>7.5200000000000003E-2</v>
+      </c>
       <c r="I25" s="3">
-        <v>7.5200000000000003E-2</v>
+        <v>3.3600000000000001E-3</v>
       </c>
       <c r="J25" s="3">
-        <v>3.3600000000000001E-3</v>
+        <v>108</v>
       </c>
       <c r="K25" s="3">
-        <v>108</v>
-      </c>
-      <c r="L25" s="3">
         <v>2.4700000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B26" s="2">
-        <v>0.33466666666666667</v>
+        <v>779</v>
       </c>
       <c r="C26" s="2">
-        <v>779</v>
+        <v>1.907</v>
       </c>
       <c r="D26" s="2">
-        <v>1.907</v>
-      </c>
-      <c r="E26" s="2">
         <v>7.21</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>15.53</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H26" s="2">
+        <v>0.10439</v>
+      </c>
       <c r="I26" s="2">
-        <v>0.10439</v>
+        <v>1.5072E-2</v>
       </c>
       <c r="J26" s="2">
-        <v>1.5072E-2</v>
+        <v>78.697000000000003</v>
       </c>
       <c r="K26" s="2">
-        <v>78.697000000000003</v>
-      </c>
-      <c r="L26" s="2">
         <v>4.9311999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B27" s="2">
-        <v>0.46659999999999996</v>
+        <v>1101</v>
       </c>
       <c r="C27" s="2">
-        <v>1101</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>2.5880000000000001</v>
-      </c>
-      <c r="E27" s="2">
         <v>20.3</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G27" s="2">
+      <c r="F27" s="2">
         <v>16.510000000000002</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H27" s="2">
+        <v>0.47082000000000002</v>
+      </c>
       <c r="I27" s="2">
-        <v>0.47082000000000002</v>
+        <v>9.7693999999999993E-4</v>
       </c>
       <c r="J27" s="2">
-        <v>9.7693999999999993E-4</v>
+        <v>909.23</v>
       </c>
       <c r="K27" s="2">
-        <v>909.23</v>
-      </c>
-      <c r="L27" s="2">
         <v>8.8009000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B28" s="2">
-        <v>0.37649999999999995</v>
+        <v>1161</v>
       </c>
       <c r="C28" s="2">
-        <v>1161</v>
+        <v>2.5459999999999998</v>
       </c>
       <c r="D28" s="2">
-        <v>2.5459999999999998</v>
-      </c>
-      <c r="E28" s="2">
         <v>18.3</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="2">
+      <c r="F28" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H28" s="2">
+        <v>0.31900000000000001</v>
+      </c>
       <c r="I28" s="2">
-        <v>0.31900000000000001</v>
+        <v>5.3280999999999997E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>5.3280999999999997E-3</v>
+        <v>179.97</v>
       </c>
       <c r="K28" s="2">
-        <v>179.97</v>
-      </c>
-      <c r="L28" s="2">
         <v>5.5030000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B29" s="2">
-        <v>0.35593333333333332</v>
+        <v>1000</v>
       </c>
       <c r="C29" s="2">
-        <v>1000</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="E29" s="2">
         <v>16.399999999999999</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2">
+      <c r="F29" s="2">
         <v>16.2</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H29" s="2">
+        <v>0.35176000000000002</v>
+      </c>
       <c r="I29" s="2">
-        <v>0.35176000000000002</v>
+        <v>1.0219000000000001E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>1.0219000000000001E-3</v>
+        <v>621.75</v>
       </c>
       <c r="K29" s="2">
-        <v>621.75</v>
-      </c>
-      <c r="L29" s="2">
         <v>5.9634</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B30" s="2">
-        <v>0.37413333333333332</v>
+        <v>1222</v>
       </c>
       <c r="C30" s="2">
-        <v>1222</v>
+        <v>2.6829999999999998</v>
       </c>
       <c r="D30" s="2">
-        <v>2.6829999999999998</v>
-      </c>
-      <c r="E30" s="2">
         <v>20.6</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="2">
+      <c r="F30" s="2">
         <v>16.68</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="H30" s="2">
+        <v>0.37567</v>
+      </c>
       <c r="I30" s="2">
-        <v>0.37567</v>
+        <v>1.5065E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>1.5065E-3</v>
+        <v>490.22</v>
       </c>
       <c r="K30" s="2">
-        <v>490.22</v>
-      </c>
-      <c r="L30" s="2">
         <v>6.3711000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="2">
-        <v>0.37626666666666664</v>
+        <v>705</v>
       </c>
       <c r="C31" s="2">
-        <v>705</v>
+        <v>1.98</v>
       </c>
       <c r="D31" s="2">
-        <v>1.98</v>
-      </c>
-      <c r="E31" s="2">
         <v>8.4499999999999993</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G31" s="2">
+      <c r="F31" s="2">
         <v>15.33</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H31" s="3">
+        <v>0.247</v>
+      </c>
       <c r="I31" s="3">
-        <v>0.247</v>
+        <v>3.63E-3</v>
       </c>
       <c r="J31" s="3">
-        <v>3.63E-3</v>
+        <v>221</v>
       </c>
       <c r="K31" s="3">
-        <v>221</v>
-      </c>
-      <c r="L31" s="3">
         <v>5.27</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B32" s="2">
-        <v>0.35556666666666664</v>
+        <v>1066</v>
       </c>
       <c r="C32" s="2">
-        <v>1066</v>
+        <v>2.3530000000000002</v>
       </c>
       <c r="D32" s="2">
-        <v>2.3530000000000002</v>
-      </c>
-      <c r="E32" s="2">
         <v>13.9</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G32" s="2">
+      <c r="F32" s="2">
         <v>16.34</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H32" s="2">
+        <v>0.35414000000000001</v>
+      </c>
       <c r="I32" s="2">
-        <v>0.35414000000000001</v>
+        <v>1.1176999999999999E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>1.1176999999999999E-3</v>
+        <v>440.85</v>
       </c>
       <c r="K32" s="2">
-        <v>440.85</v>
-      </c>
-      <c r="L32" s="2">
         <v>4.7137000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="2">
-        <v>0.29926666666666668</v>
+        <v>817</v>
       </c>
       <c r="C33" s="2">
-        <v>817</v>
+        <v>1.9359999999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>1.9359999999999999</v>
-      </c>
-      <c r="E33" s="2">
         <v>7.74</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="2">
+      <c r="F33" s="2">
         <v>15.67</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H33" s="2">
+        <v>0.33737</v>
+      </c>
       <c r="I33" s="2">
-        <v>0.33737</v>
+        <v>1.0231999999999999E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>1.0231999999999999E-3</v>
+        <v>516.80999999999995</v>
       </c>
       <c r="K33" s="2">
-        <v>516.80999999999995</v>
-      </c>
-      <c r="L33" s="2">
         <v>5.7214999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B34" s="2">
-        <v>0.30993333333333328</v>
+        <v>746</v>
       </c>
       <c r="C34" s="2">
-        <v>746</v>
+        <v>1.823</v>
       </c>
       <c r="D34" s="2">
-        <v>1.823</v>
-      </c>
-      <c r="E34" s="2">
         <v>6.42</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G34" s="2">
+      <c r="F34" s="2">
         <v>15.44</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H34">
+        <v>0.20100000000000001</v>
+      </c>
       <c r="I34">
-        <v>0.20100000000000001</v>
+        <v>2.4784999999999998E-3</v>
       </c>
       <c r="J34">
-        <v>2.4784999999999998E-3</v>
+        <v>319.76</v>
       </c>
       <c r="K34">
-        <v>319.76</v>
-      </c>
-      <c r="L34">
         <v>5.5693999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B35" s="2">
-        <v>0.27533333333333332</v>
+        <v>564</v>
       </c>
       <c r="C35" s="2">
-        <v>564</v>
+        <v>1.34</v>
       </c>
       <c r="D35" s="2">
-        <v>1.34</v>
-      </c>
-      <c r="E35" s="2">
         <v>2.4300000000000002</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G35" s="2">
+      <c r="F35" s="2">
         <v>14.71</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="H35" s="3">
+        <v>6.3700000000000007E-2</v>
+      </c>
       <c r="I35" s="3">
-        <v>6.3700000000000007E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="J35" s="3">
-        <v>1.1599999999999999E-2</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="K35" s="3">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="L35" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>0.36699999999999999</v>
+        <v>955</v>
       </c>
       <c r="C36" s="2">
-        <v>955</v>
+        <v>2.46</v>
       </c>
       <c r="D36" s="2">
-        <v>2.46</v>
-      </c>
-      <c r="E36" s="2">
         <v>15.75</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="2">
+      <c r="F36" s="2">
         <v>16.059999999999999</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H36" s="2">
+        <v>0.17141000000000001</v>
+      </c>
       <c r="I36" s="2">
-        <v>0.17141000000000001</v>
+        <v>6.1044000000000003E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>6.1044000000000003E-3</v>
+        <v>191.21</v>
       </c>
       <c r="K36" s="2">
-        <v>191.21</v>
-      </c>
-      <c r="L36" s="2">
         <v>6.1588000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="2">
-        <v>0.30883333333333329</v>
+        <v>594</v>
       </c>
       <c r="C37" s="2">
-        <v>594</v>
+        <v>1.55</v>
       </c>
       <c r="D37" s="2">
-        <v>1.55</v>
-      </c>
-      <c r="E37" s="2">
         <v>3.94</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="2">
+      <c r="F37" s="2">
         <v>14.87</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H37" s="2">
+        <v>0.14948</v>
+      </c>
       <c r="I37" s="2">
-        <v>0.14948</v>
+        <v>1.3305999999999999E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>1.3305999999999999E-3</v>
+        <v>379.77</v>
       </c>
       <c r="K37" s="2">
-        <v>379.77</v>
-      </c>
-      <c r="L37" s="2">
         <v>4.6631</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="2">
-        <v>0.29543333333333333</v>
+        <v>753</v>
       </c>
       <c r="C38" s="2">
-        <v>753</v>
+        <v>1.79</v>
       </c>
       <c r="D38" s="2">
-        <v>1.79</v>
-      </c>
-      <c r="E38" s="2">
         <v>5.95</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="2">
+      <c r="F38" s="2">
         <v>15.45</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="H38" s="2">
+        <v>0.20100000000000001</v>
+      </c>
       <c r="I38" s="2">
-        <v>0.20100000000000001</v>
+        <v>1.5644999999999999E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>1.5644999999999999E-3</v>
+        <v>208.29</v>
       </c>
       <c r="K38" s="2">
-        <v>208.29</v>
-      </c>
-      <c r="L38" s="2">
         <v>2.7847</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="2">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="C39" s="2">
-        <v>607</v>
+        <v>1.49</v>
       </c>
       <c r="D39" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="E39" s="2">
         <v>3.46</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="2">
+      <c r="F39" s="2">
         <v>14.92</v>
       </c>
     </row>
